--- a/src/data/Iteration.xlsx
+++ b/src/data/Iteration.xlsx
@@ -54,7 +54,7 @@
     <t>completion_time</t>
   </si>
   <si>
-    <t>New lot 8</t>
+    <t>New lot 3</t>
   </si>
   <si>
     <t>LN16004-W1</t>
@@ -69,22 +69,43 @@
     <t>seq_1</t>
   </si>
   <si>
+    <t>LN13007-W1</t>
+  </si>
+  <si>
+    <t>rob_dicing</t>
+  </si>
+  <si>
+    <t>tsk_1</t>
+  </si>
+  <si>
     <t>New lot 4</t>
   </si>
   <si>
-    <t>New lot 0</t>
-  </si>
-  <si>
-    <t>New lot 1</t>
+    <t>New lot 9</t>
   </si>
   <si>
     <t>wafer_dicing</t>
   </si>
   <si>
-    <t>dic_1</t>
+    <t>dic_2</t>
   </si>
   <si>
-    <t>LN13007-W1</t>
+    <t>block_wedge</t>
+  </si>
+  <si>
+    <t>blo_1</t>
+  </si>
+  <si>
+    <t>LN11005-W</t>
+  </si>
+  <si>
+    <t>inspection</t>
+  </si>
+  <si>
+    <t>ins_2</t>
+  </si>
+  <si>
+    <t>seq_2</t>
   </si>
   <si>
     <t>coat</t>
@@ -93,76 +114,55 @@
     <t>VN#5</t>
   </si>
   <si>
-    <t>dic_2</t>
+    <t>New lot 2</t>
   </si>
   <si>
-    <t>rob_dicing</t>
+    <t>dic_1</t>
   </si>
   <si>
-    <t>tsk_1</t>
+    <t>New lot 5</t>
   </si>
   <si>
-    <t>New lot 7</t>
+    <t>final_dicing</t>
+  </si>
+  <si>
+    <t>New lot 0</t>
+  </si>
+  <si>
+    <t>New lot 11</t>
+  </si>
+  <si>
+    <t>LN11003-W1</t>
+  </si>
+  <si>
+    <t>New lot 8</t>
+  </si>
+  <si>
+    <t>LN12001-W</t>
+  </si>
+  <si>
+    <t>blo_2</t>
   </si>
   <si>
     <t>New lot 10</t>
   </si>
   <si>
-    <t>LN11003-W1</t>
-  </si>
-  <si>
     <t>New lot 6</t>
   </si>
   <si>
-    <t>inspection</t>
+    <t>ins_1</t>
   </si>
   <si>
-    <t>ins_2</t>
+    <t>New lot 1</t>
   </si>
   <si>
-    <t>final_dicing</t>
-  </si>
-  <si>
-    <t>New lot 3</t>
-  </si>
-  <si>
-    <t>New lot 5</t>
-  </si>
-  <si>
-    <t>New lot 11</t>
-  </si>
-  <si>
-    <t>block_wedge</t>
-  </si>
-  <si>
-    <t>blo_1</t>
-  </si>
-  <si>
-    <t>New lot 2</t>
-  </si>
-  <si>
-    <t>blo_2</t>
-  </si>
-  <si>
-    <t>New lot 9</t>
-  </si>
-  <si>
-    <t>LN11005-W</t>
-  </si>
-  <si>
-    <t>seq_2</t>
-  </si>
-  <si>
-    <t>LN12001-W</t>
+    <t>New lot 7</t>
   </si>
   <si>
     <t>packing</t>
   </si>
   <si>
     <t>pac_1</t>
-  </si>
-  <si>
-    <t>ins_1</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,16 +542,50 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>723982.2</v>
+        <v>697270.8</v>
       </c>
       <c r="C2" t="n">
-        <v>473860</v>
+        <v>458405.4</v>
       </c>
       <c r="D2" t="n">
-        <v>473860</v>
+        <v>458405.4</v>
       </c>
       <c r="E2" t="n">
-        <v>55.19587981599999</v>
+        <v>65.991651652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>489482.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>366463.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>366463.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43.183115026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>460158.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>366463.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>366463.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>48.64227627300001</v>
       </c>
     </row>
   </sheetData>
@@ -622,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>43383.25</v>
+        <v>43384.25</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>43383.27083333334</v>
+        <v>43384.27083333334</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -633,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>19018607</v>
+        <v>19018242</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>43383.27083333334</v>
+        <v>43384.25</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>43383.29166666666</v>
+        <v>43384.77916666667</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -664,8 +698,8 @@
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4" t="n">
+        <v>19017457</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -680,10 +714,10 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>43383.29166666666</v>
+        <v>43384.27083333334</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>43383.3125</v>
+        <v>43384.29166666666</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -694,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -709,10 +743,10 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>43383.3125</v>
+        <v>43384.29166666666</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>43383.33333333334</v>
+        <v>43384.3125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -723,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -738,10 +772,10 @@
         <v>16</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>43383.33333333334</v>
+        <v>43384.3125</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>43383.35416666666</v>
+        <v>43384.33333333334</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -749,28 +783,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19019380</v>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>43383.25</v>
+        <v>43384.33333333334</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>43383.38333333333</v>
+        <v>43384.46666666667</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -778,28 +812,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>19018607</v>
+        <v>19018242</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>43383.38333333333</v>
+        <v>43384.77916666667</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>43383.51666666667</v>
+        <v>43385.07916666667</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -807,28 +841,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>19019381</v>
+        <v>19019122</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>43383.51666666667</v>
+        <v>43384.25</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>43383.65</v>
+        <v>43384.58333333334</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -836,28 +870,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>19017230</v>
+        <v>19018607</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>43383.25</v>
+        <v>43384.33333333334</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>43383.70833333334</v>
+        <v>43384.35416666666</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -868,25 +902,25 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>43383.27083333334</v>
+        <v>43384.77916666667</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>43383.40416666667</v>
+        <v>43385.2375</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -897,25 +931,25 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>19018242</v>
+        <v>19017230</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>43383.25</v>
+        <v>43384.25</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>43383.77916666667</v>
+        <v>43384.70833333334</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -923,28 +957,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19019381</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>43383.77916666667</v>
+        <v>43384.35416666666</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43384.375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -952,28 +986,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19019380</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>43383.35416666666</v>
+        <v>43384.25</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>43383.375</v>
+        <v>43384.38333333333</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -981,13 +1015,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -999,10 +1033,10 @@
         <v>16</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>43383.375</v>
+        <v>43384.375</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>43383.39583333334</v>
+        <v>43384.39583333334</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1013,25 +1047,25 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>43383.39583333334</v>
+        <v>43384.46666666667</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>43383.41666666666</v>
+        <v>43384.6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1039,28 +1073,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>19018606</v>
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
       <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>43383.25</v>
+        <v>43384.6</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>43383.84583333333</v>
+        <v>43384.73333333333</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1068,28 +1102,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>19017230</v>
+        <v>19017457</v>
       </c>
       <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>43383.70833333334</v>
+        <v>43384.73333333333</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>43383.93333333333</v>
+        <v>43384.86666666667</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1097,28 +1131,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19019990</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>43383.41666666666</v>
+        <v>43384.86666666667</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>43383.4375</v>
+        <v>43385.05833333333</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1129,25 +1163,25 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>43383.93333333333</v>
+        <v>43384.39583333334</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>43384.06666666667</v>
+        <v>43384.41666666666</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1155,28 +1189,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19019989</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>43383.77916666667</v>
+        <v>43384.38333333333</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43384.60833333333</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1187,25 +1221,25 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>43383.4375</v>
+        <v>43385.05833333333</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>43383.45833333334</v>
+        <v>43385.19166666667</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1213,28 +1247,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>43383.40416666667</v>
+        <v>43384.41666666666</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>43383.5375</v>
+        <v>43384.4375</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1242,28 +1276,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19019380</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>43383.45833333334</v>
+        <v>43385.2375</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>43383.47916666666</v>
+        <v>43385.69583333333</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1274,25 +1308,25 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>43383.5375</v>
+        <v>43384.4375</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>43383.67083333333</v>
+        <v>43384.45833333334</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1300,28 +1334,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>19018242</v>
+        <v>19019131</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>43383.77916666667</v>
+        <v>43384.58333333334</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>43384.07916666667</v>
+        <v>43385</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1329,28 +1363,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>19019379</v>
+        <v>19019654</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>43384.06666666667</v>
+        <v>43385</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>43384.2</v>
+        <v>43385.59583333333</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1367,19 +1401,19 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>43383.77916666667</v>
+        <v>43385.19166666667</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43385.325</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1387,28 +1421,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19018607</v>
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43384.60833333333</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>43384.5375</v>
+        <v>43384.74166666667</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1416,28 +1450,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>19018242</v>
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
       </c>
       <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>43384.07916666667</v>
+        <v>43384.74166666667</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>43384.5375</v>
+        <v>43384.875</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1448,25 +1482,25 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>19019381</v>
+        <v>19019380</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>43384.5375</v>
+        <v>43385.69583333333</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>43384.8375</v>
+        <v>43385.99583333333</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1474,28 +1508,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>19019990</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>43383.67083333333</v>
+        <v>43386.09583333333</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>43383.80416666667</v>
+        <v>43386.58333333334</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1505,26 +1539,26 @@
       <c r="B33" t="n">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>35</v>
+      <c r="C33" t="n">
+        <v>19018607</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>43384.2</v>
+        <v>43385.69583333333</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>43384.33333333334</v>
+        <v>43386.15416666667</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1535,25 +1569,25 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>43383.47916666666</v>
+        <v>43385.69583333333</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>43383.5</v>
+        <v>43386.15416666667</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1561,28 +1595,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19019379</v>
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43385.69583333333</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43386.15416666667</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1590,28 +1624,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>19019381</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43384.875</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>43385.175</v>
+        <v>43385.00833333333</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1619,28 +1653,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43384.45833333334</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43384.47916666666</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1648,28 +1682,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43385.00833333333</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43385.14166666667</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1677,28 +1711,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>19019991</v>
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
         <v>23</v>
       </c>
-      <c r="F39" t="s">
-        <v>24</v>
-      </c>
       <c r="G39" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>43384.5375</v>
+        <v>43385.325</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>43384.99583333333</v>
+        <v>43385.45833333334</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1708,26 +1742,26 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>12</v>
+      <c r="C40" t="n">
+        <v>19017457</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43385.69583333333</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>43384.5375</v>
+        <v>43386.15416666667</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1735,28 +1769,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>19017457</v>
+        <v>19017203</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>43383.5</v>
+        <v>43386.58333333334</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>43383.52083333334</v>
+        <v>43387</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1767,25 +1801,25 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>43383.80416666667</v>
+        <v>43384.47916666666</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>43383.9375</v>
+        <v>43384.5</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1793,28 +1827,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>19019381</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43386.15416666667</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43386.6125</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1822,28 +1856,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>19005847</v>
+        <v>19017206</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43384.25</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>43385.175</v>
+        <v>43384.66666666666</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1851,28 +1885,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>19018242</v>
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>43384.5375</v>
+        <v>43385.2375</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>43384.7625</v>
+        <v>43385.5375</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1883,25 +1917,25 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>43384.7625</v>
+        <v>43386.15416666667</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>43384.89583333334</v>
+        <v>43386.6125</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1909,28 +1943,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
-      </c>
-      <c r="C47" t="n">
-        <v>19018242</v>
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>43384.7625</v>
+        <v>43384.5</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>43385.35833333333</v>
+        <v>43384.52083333334</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1941,25 +1975,25 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>43383.52083333334</v>
+        <v>43386.15416666667</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>43383.54166666666</v>
+        <v>43386.6125</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1970,25 +2004,25 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>43384.69583333333</v>
+        <v>43384.52083333334</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>43384.99583333333</v>
+        <v>43384.54166666666</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1996,28 +2030,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>19019122</v>
+        <v>19017457</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>43385.94166666667</v>
+        <v>43386.15416666667</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>43386.275</v>
+        <v>43386.45416666667</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2025,28 +2059,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>19005847</v>
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>43385.175</v>
+        <v>43386.15416666667</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>43385.475</v>
+        <v>43386.6125</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2054,28 +2088,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C52" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>19017203</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>43383.9375</v>
+        <v>43387</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>43384.07083333333</v>
+        <v>43387.04166666666</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2083,28 +2117,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>19019131</v>
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>43386.275</v>
+        <v>43385.45833333334</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>43386.69166666667</v>
+        <v>43385.59166666667</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2112,28 +2146,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>19019380</v>
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>43383.77916666667</v>
+        <v>43385.5375</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>43384.2375</v>
+        <v>43385.99583333333</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2141,28 +2175,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>43385.175</v>
+        <v>43386.6125</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>43385.63333333333</v>
+        <v>43387.09166666667</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2170,28 +2204,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>19018243</v>
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>43384.89583333334</v>
+        <v>43386.6125</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>43385.12083333333</v>
+        <v>43386.9125</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2202,25 +2236,25 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>43385.12083333333</v>
+        <v>43386.6125</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>43385.25416666667</v>
+        <v>43386.9125</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2230,26 +2264,26 @@
       <c r="B58" t="n">
         <v>5</v>
       </c>
-      <c r="C58" t="n">
-        <v>19017457</v>
+      <c r="C58" t="s">
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>43385.25416666667</v>
+        <v>43386.9125</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>43385.3875</v>
+        <v>43387.2125</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2257,28 +2291,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>19017230</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>43385.175</v>
+        <v>43385.14166666667</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>43385.63333333333</v>
+        <v>43385.36666666667</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2286,28 +2320,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>43384.07083333333</v>
+        <v>43385.59166666667</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>43384.20416666667</v>
+        <v>43385.725</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2315,28 +2349,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>19017457</v>
       </c>
       <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
         <v>30</v>
       </c>
-      <c r="E61" t="s">
-        <v>26</v>
-      </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>43385.63333333333</v>
+        <v>43386.45416666667</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>43386.1125</v>
+        <v>43386.9125</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2344,28 +2378,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>19019119</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>43385.175</v>
+        <v>43384.66666666666</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>43385.475</v>
+        <v>43385</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2373,28 +2407,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>19017230</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>43386.1125</v>
+        <v>43388</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>43386.57083333333</v>
+        <v>43388.59583333333</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2402,28 +2436,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>19019380</v>
+        <v>19019122</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>43385.475</v>
+        <v>43387.04166666666</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>43385.775</v>
+        <v>43387.08333333334</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2434,25 +2468,25 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>43384.99583333333</v>
+        <v>43388.2125</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>43385.45416666667</v>
+        <v>43388.5125</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2462,26 +2496,26 @@
       <c r="B66" t="n">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
-        <v>12</v>
+      <c r="C66" t="n">
+        <v>19017457</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
         <v>23</v>
       </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>43384.99583333333</v>
+        <v>43386.9125</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>43385.45416666667</v>
+        <v>43387.10416666666</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2489,28 +2523,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" t="n">
-        <v>19017457</v>
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>43386.1125</v>
+        <v>43386.6125</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>43386.57083333333</v>
+        <v>43387.09166666667</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2518,28 +2552,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>19019991</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>43385.775</v>
+        <v>43386.45416666667</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>43386.075</v>
+        <v>43386.9125</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2547,28 +2581,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>43386.1125</v>
+        <v>43385.36666666667</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>43386.4125</v>
+        <v>43385.5</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2576,28 +2610,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>43386.4375</v>
+        <v>43388.5125</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43388.8125</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2608,25 +2642,25 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>19019990</v>
+        <v>19019380</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>43385.3875</v>
+        <v>43386.45416666667</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>43385.57916666667</v>
+        <v>43386.9125</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2634,16 +2668,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>19019381</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
         <v>25</v>
@@ -2652,10 +2686,10 @@
         <v>16</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>43384.20416666667</v>
+        <v>43386.9125</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>43384.3375</v>
+        <v>43387.2125</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2663,28 +2697,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>19019381</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>43386.1125</v>
+        <v>43388.2125</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>43386.57083333333</v>
+        <v>43388.67083333333</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2692,28 +2726,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>19017230</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>43386.075</v>
+        <v>43388.59583333333</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>43386.375</v>
+        <v>43388.6375</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2721,28 +2755,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
-      </c>
-      <c r="C75" t="n">
-        <v>19019119</v>
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
       </c>
       <c r="D75" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
         <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>43386.69166666667</v>
+        <v>43385.5</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>43387.025</v>
+        <v>43385.63333333333</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2750,16 +2784,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
         <v>41</v>
@@ -2768,10 +2802,10 @@
         <v>16</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>43386.375</v>
+        <v>43388.8125</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>43386.675</v>
+        <v>43389.1125</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2779,28 +2813,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>19017206</v>
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>43388.025</v>
+        <v>43388.8125</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>43388.44166666667</v>
+        <v>43389.27083333334</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2808,28 +2842,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>19019379</v>
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43388.2125</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>43387.0375</v>
+        <v>43388.67083333333</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2837,28 +2871,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>19019380</v>
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>43385.775</v>
+        <v>43388.09166666667</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>43386.23333333333</v>
+        <v>43388.55</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2866,28 +2900,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>19019119</v>
+        <v>19017206</v>
       </c>
       <c r="D80" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>43387.025</v>
+        <v>43388.6375</v>
       </c>
       <c r="I80" s="2" t="n">
-        <v>43387.06666666667</v>
+        <v>43388.67916666667</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2895,28 +2929,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>19005847</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
-        <v>23</v>
-      </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43386.6125</v>
       </c>
       <c r="I81" s="2" t="n">
-        <v>43387.19583333333</v>
+        <v>43387.09166666667</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2924,28 +2958,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>19018606</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>43386.57083333333</v>
+        <v>43389.09583333333</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>43387.02916666667</v>
+        <v>43389.69166666667</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2956,25 +2990,25 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43388.55</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>43387.19583333333</v>
+        <v>43388.85</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2982,28 +3016,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>19018243</v>
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>43385.12083333333</v>
+        <v>43388.2125</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>43385.71666666667</v>
+        <v>43388.67083333333</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3011,28 +3045,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>19019654</v>
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>43385.84583333333</v>
+        <v>43388.09166666667</v>
       </c>
       <c r="I85" s="2" t="n">
-        <v>43386.44166666667</v>
+        <v>43388.55</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3040,28 +3074,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>19019379</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43385.63333333333</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>43387.19583333333</v>
+        <v>43385.76666666667</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3069,28 +3103,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>19018606</v>
+        <v>19005847</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>43387.06666666667</v>
+        <v>43389.0125</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>43387.10833333333</v>
+        <v>43389.3125</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3100,26 +3134,26 @@
       <c r="B88" t="n">
         <v>5</v>
       </c>
-      <c r="C88" t="n">
-        <v>19018607</v>
+      <c r="C88" t="s">
+        <v>43</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43388.09166666667</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>43387.19583333333</v>
+        <v>43388.55</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3127,28 +3161,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>19019989</v>
+        <v>19019119</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>43385.57916666667</v>
+        <v>43388.67916666667</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>43385.80416666667</v>
+        <v>43388.72083333333</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3158,26 +3192,26 @@
       <c r="B90" t="n">
         <v>5</v>
       </c>
-      <c r="C90" t="s">
-        <v>36</v>
+      <c r="C90" t="n">
+        <v>19018607</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>43386.57083333333</v>
+        <v>43389.1125</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>43387.02916666667</v>
+        <v>43389.4125</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3185,28 +3219,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>19019991</v>
+        <v>19018242</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>43385.80416666667</v>
+        <v>43389.27083333334</v>
       </c>
       <c r="I91" s="2" t="n">
-        <v>43385.99583333333</v>
+        <v>43389.72916666666</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3214,28 +3248,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
-      </c>
-      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>19019380</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
         <v>35</v>
       </c>
-      <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>34</v>
-      </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>43388.19583333333</v>
+        <v>43388.10416666666</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>43388.3875</v>
+        <v>43388.29583333333</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3243,28 +3277,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19019381</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
         <v>23</v>
       </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
       <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>43386.7375</v>
+        <v>43388.67083333333</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>43387.19583333333</v>
+        <v>43388.8625</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3275,25 +3309,25 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>43388.0375</v>
+        <v>43388.2125</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>43388.3375</v>
+        <v>43388.67083333333</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3304,25 +3338,25 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>43388.3375</v>
+        <v>43385.99583333333</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>43388.6375</v>
+        <v>43386.1875</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3330,28 +3364,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
         <v>23</v>
       </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
       <c r="G96" t="s">
         <v>16</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>43388.19583333333</v>
+        <v>43388.8625</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43389.05416666667</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3359,28 +3393,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>19017457</v>
+        <v>19019990</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>43388.6375</v>
+        <v>43388.72083333333</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>43388.9375</v>
+        <v>43388.7625</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3388,28 +3422,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>19019654</v>
+        <v>19019991</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>43387.10833333333</v>
+        <v>43386.9125</v>
       </c>
       <c r="I98" s="2" t="n">
-        <v>43387.15</v>
+        <v>43387.10416666666</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3417,28 +3451,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>19017230</v>
+        <v>19019379</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>43387.94166666667</v>
+        <v>43388.55</v>
       </c>
       <c r="I99" s="2" t="n">
-        <v>43388.5375</v>
+        <v>43389.00833333333</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3449,13 +3483,13 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F100" t="s">
         <v>25</v>
@@ -3464,10 +3498,10 @@
         <v>16</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>43388.3875</v>
+        <v>43389.3125</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>43388.57916666667</v>
+        <v>43389.6125</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3475,28 +3509,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
-      </c>
-      <c r="C101" t="n">
-        <v>19017230</v>
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>43388.5375</v>
+        <v>43388.67083333333</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>43388.57916666667</v>
+        <v>43388.8625</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3504,28 +3538,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>19019379</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43389.6125</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>43389.1125</v>
+        <v>43389.9125</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3536,25 +3570,25 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>43389.0375</v>
+        <v>43389.72916666666</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>43389.525</v>
+        <v>43390.1875</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3562,28 +3596,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>19019380</v>
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>43388.57916666667</v>
+        <v>43389.72916666666</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>43388.77083333334</v>
+        <v>43390.1875</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3591,28 +3625,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>19018607</v>
+        <v>19005847</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>43388.77083333334</v>
+        <v>43390.1875</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>43388.9625</v>
+        <v>43390.64583333334</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3620,28 +3654,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>19018606</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43389.69166666667</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>43389.1125</v>
+        <v>43389.73333333333</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3649,28 +3683,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>19019991</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43388.10416666666</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>43388.84583333333</v>
+        <v>43388.59166666667</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3681,25 +3715,25 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" t="s">
         <v>30</v>
       </c>
-      <c r="E108" t="s">
-        <v>32</v>
-      </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>43388.84583333333</v>
+        <v>43390.1875</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>43389.33333333334</v>
+        <v>43390.64583333334</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3707,28 +3741,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>43388.19583333333</v>
+        <v>43388.55</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43389.00833333333</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3736,28 +3770,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
-      </c>
-      <c r="C110" t="n">
-        <v>19019122</v>
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
       </c>
       <c r="D110" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>43388.57916666667</v>
+        <v>43389.4125</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>43388.62083333333</v>
+        <v>43389.7125</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3767,26 +3801,26 @@
       <c r="B111" t="n">
         <v>5</v>
       </c>
-      <c r="C111" t="n">
-        <v>19017457</v>
+      <c r="C111" t="s">
+        <v>43</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43389.9125</v>
       </c>
       <c r="I111" s="2" t="n">
-        <v>43389.1125</v>
+        <v>43390.2125</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3797,25 +3831,25 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>43388.9375</v>
+        <v>43389.72916666666</v>
       </c>
       <c r="I112" s="2" t="n">
-        <v>43389.2375</v>
+        <v>43390.1875</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3823,28 +3857,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="n">
-        <v>19005847</v>
+        <v>19017457</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>43388.19583333333</v>
+        <v>43390.19166666667</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43390.67916666667</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3852,28 +3886,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>19019380</v>
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>43389.42916666667</v>
+        <v>43390.1875</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>43389.91666666666</v>
+        <v>43390.37916666667</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3881,28 +3915,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>19019381</v>
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43388.8625</v>
       </c>
       <c r="I115" s="2" t="n">
-        <v>43389.1125</v>
+        <v>43389.05416666667</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3910,28 +3944,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>43388.9625</v>
+        <v>43390.64583333334</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>43389.15416666667</v>
+        <v>43390.8375</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3939,28 +3973,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C117" t="n">
-        <v>19019381</v>
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>43389.15416666667</v>
+        <v>43390.1875</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>43389.34583333333</v>
+        <v>43390.37916666667</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3971,25 +4005,25 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>19018607</v>
+        <v>19017457</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>43389.91666666666</v>
+        <v>43390.67916666667</v>
       </c>
       <c r="I118" s="2" t="n">
-        <v>43390.40416666667</v>
+        <v>43390.72083333333</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3997,28 +4031,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>19019381</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>43389.34583333333</v>
+        <v>43388.9875</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>43389.5375</v>
+        <v>43389.475</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4029,25 +4063,25 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>43389.5375</v>
+        <v>43390.67916666667</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>43389.72916666666</v>
+        <v>43391.16666666666</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4055,28 +4089,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>19018243</v>
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>43388.62083333333</v>
+        <v>43391.16666666666</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>43388.6625</v>
+        <v>43391.65416666667</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4093,19 +4127,19 @@
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>16</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>43388.65416666667</v>
+        <v>43389.72916666666</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>43389.1125</v>
+        <v>43390.1875</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4113,28 +4147,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>19019381</v>
+        <v>19018242</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G123" t="s">
         <v>16</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>43389.525</v>
+        <v>43390.8375</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>43390.0125</v>
+        <v>43391.0625</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4142,28 +4176,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>19019379</v>
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>46</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>43389.1125</v>
+        <v>43390.2125</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>43389.30416666667</v>
+        <v>43390.5125</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4171,28 +4205,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>19005847</v>
+        <v>19019991</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G125" t="s">
         <v>16</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>43389.72916666666</v>
+        <v>43390.72083333333</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>43389.92083333333</v>
+        <v>43390.7625</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4203,25 +4237,25 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>43386.675</v>
+        <v>43389.475</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>43386.975</v>
+        <v>43389.9625</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4229,28 +4263,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>19019131</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E127" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G127" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>43389.30416666667</v>
+        <v>43390.7625</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>43389.49583333333</v>
+        <v>43390.80416666667</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4261,25 +4295,25 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>16</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>43390.0125</v>
+        <v>43390.64583333334</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>43390.5</v>
+        <v>43391.10416666666</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4287,28 +4321,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5</v>
-      </c>
-      <c r="C129" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>19019115</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>43389.49583333333</v>
+        <v>43389.9625</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>43389.6875</v>
+        <v>43390.29583333333</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4319,25 +4353,25 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>16</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>43389.2375</v>
+        <v>43390.64583333334</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>43389.69583333333</v>
+        <v>43391.10416666666</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4345,28 +4379,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>19005847</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>16</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>43389.2375</v>
+        <v>43390.64583333334</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>43389.69583333333</v>
+        <v>43390.8375</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4377,25 +4411,25 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>19019379</v>
+        <v>19019380</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G132" t="s">
         <v>16</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>43390.40416666667</v>
+        <v>43391.65416666667</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>43390.89166666667</v>
+        <v>43392.14166666667</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4403,28 +4437,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133" t="n">
-        <v>19019989</v>
+        <v>19019115</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G133" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>43390.89166666667</v>
+        <v>43390.80416666667</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>43391.4875</v>
+        <v>43390.84583333333</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4435,25 +4469,25 @@
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>16</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>43389.92083333333</v>
+        <v>43391.10416666666</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>43390.1125</v>
+        <v>43391.29583333333</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4461,16 +4495,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>19019991</v>
+        <v>19019654</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F135" t="s">
         <v>48</v>
@@ -4479,10 +4513,10 @@
         <v>16</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>43390.5</v>
+        <v>43390.84583333333</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>43390.9875</v>
+        <v>43390.8875</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4490,28 +4524,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>19019990</v>
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G136" t="s">
         <v>16</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>43391.9875</v>
+        <v>43391.16666666666</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>43392.475</v>
+        <v>43391.20833333334</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4519,28 +4553,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>19018243</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G137" t="s">
         <v>16</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>43392.475</v>
+        <v>43391.0625</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>43392.9625</v>
+        <v>43391.2875</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4548,28 +4582,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
         <v>30</v>
       </c>
-      <c r="E138" t="s">
-        <v>34</v>
-      </c>
       <c r="F138" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>16</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>43389.6875</v>
+        <v>43390.64583333334</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>43389.87916666667</v>
+        <v>43391.10416666666</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4577,28 +4611,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G139" t="s">
         <v>16</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>43392.9625</v>
+        <v>43391.2875</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>43393.45</v>
+        <v>43391.47916666666</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4606,28 +4640,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>19017203</v>
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>43390.9875</v>
+        <v>43391.47916666666</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>43391.40416666667</v>
+        <v>43391.67083333333</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4635,28 +4669,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>19019115</v>
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
       </c>
       <c r="D141" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>43393.45</v>
+        <v>43391.29583333333</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>43393.78333333333</v>
+        <v>43391.78333333333</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4664,28 +4698,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
-      </c>
-      <c r="C142" t="n">
-        <v>19005847</v>
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>46</v>
       </c>
       <c r="D142" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F142" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G142" t="s">
         <v>16</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>43391.40416666667</v>
+        <v>43392.14166666667</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>43391.89166666667</v>
+        <v>43392.62916666667</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4693,28 +4727,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5</v>
-      </c>
-      <c r="C143" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>19005847</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
         <v>16</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>43389.87916666667</v>
+        <v>43391.78333333333</v>
       </c>
       <c r="I143" s="2" t="n">
-        <v>43390.07083333333</v>
+        <v>43392.27083333334</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4722,28 +4756,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4</v>
-      </c>
-      <c r="C144" t="n">
-        <v>19018242</v>
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>43</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G144" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>43388.6625</v>
+        <v>43391.67083333333</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>43388.70416666667</v>
+        <v>43391.8625</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4754,25 +4788,25 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
         <v>16</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>43390.1125</v>
+        <v>43392.27083333334</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>43390.30416666667</v>
+        <v>43392.75833333333</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4783,25 +4817,25 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
         <v>16</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>43390.5</v>
+        <v>43392.62916666667</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>43390.54166666666</v>
+        <v>43393.11666666667</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4812,25 +4846,25 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>43393.78333333333</v>
+        <v>43392.75833333333</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>43394.27083333334</v>
+        <v>43393.24583333333</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4840,26 +4874,26 @@
       <c r="B148" t="n">
         <v>5</v>
       </c>
-      <c r="C148" t="n">
-        <v>19018607</v>
+      <c r="C148" t="s">
+        <v>39</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G148" t="s">
         <v>16</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>43390.54166666666</v>
+        <v>43393.24583333333</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>43390.58333333334</v>
+        <v>43393.73333333333</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4869,26 +4903,26 @@
       <c r="B149" t="n">
         <v>7</v>
       </c>
-      <c r="C149" t="s">
-        <v>37</v>
+      <c r="C149" t="n">
+        <v>19005847</v>
       </c>
       <c r="D149" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G149" t="s">
         <v>16</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>43390.58333333334</v>
+        <v>43392.27083333334</v>
       </c>
       <c r="I149" s="2" t="n">
-        <v>43390.625</v>
+        <v>43392.3125</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4899,25 +4933,25 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>43394.27083333334</v>
+        <v>43393.73333333333</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>43394.75833333333</v>
+        <v>43393.775</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4925,28 +4959,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>19019379</v>
+        <v>19018243</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
         <v>16</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>43390.89166666667</v>
+        <v>43393.73333333333</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>43390.93333333333</v>
+        <v>43394.32916666667</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4954,16 +4988,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F152" t="s">
         <v>33</v>
@@ -4972,10 +5006,10 @@
         <v>16</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>43394.75833333333</v>
+        <v>43391.29583333333</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>43395.24583333333</v>
+        <v>43391.4875</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4983,28 +5017,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>19019379</v>
       </c>
       <c r="D153" t="s">
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>43391.89166666667</v>
+        <v>43391.4875</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>43392.37916666667</v>
+        <v>43391.67916666667</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5012,28 +5046,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>19005847</v>
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>36</v>
       </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G154" t="s">
         <v>16</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>43391.89166666667</v>
+        <v>43395.82916666667</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>43391.93333333333</v>
+        <v>43396.31666666667</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5041,28 +5075,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E155" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F155" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G155" t="s">
         <v>16</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>43392.9625</v>
+        <v>43393.11666666667</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>43393.00416666667</v>
+        <v>43393.60416666666</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5070,28 +5104,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G156" t="s">
         <v>16</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>43393.45</v>
+        <v>43393.775</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>43393.49166666667</v>
+        <v>43393.81666666667</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5099,28 +5133,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>19019115</v>
+        <v>19019379</v>
       </c>
       <c r="D157" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G157" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>43393.78333333333</v>
+        <v>43393.60416666666</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>43393.825</v>
+        <v>43394.09166666667</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5128,28 +5162,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>19019131</v>
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H158" s="2" t="n">
-        <v>43393.825</v>
+        <v>43394.09166666667</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>43393.86666666667</v>
+        <v>43394.57916666667</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5157,28 +5191,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>19017457</v>
+        <v>19019380</v>
       </c>
       <c r="D159" t="s">
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G159" t="s">
         <v>16</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>43390.07083333333</v>
+        <v>43393.81666666667</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>43390.2625</v>
+        <v>43393.85833333333</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5189,25 +5223,25 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G160" t="s">
         <v>16</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>43393.86666666667</v>
+        <v>43393.85833333333</v>
       </c>
       <c r="I160" s="2" t="n">
-        <v>43393.90833333333</v>
+        <v>43393.9</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5215,28 +5249,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>19017206</v>
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>43393.90833333333</v>
+        <v>43393.9</v>
       </c>
       <c r="I161" s="2" t="n">
-        <v>43393.95</v>
+        <v>43393.94166666667</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5253,19 +5287,19 @@
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G162" t="s">
         <v>16</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>43394.27083333334</v>
+        <v>43393.94166666667</v>
       </c>
       <c r="I162" s="2" t="n">
-        <v>43394.3125</v>
+        <v>43393.98333333333</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5273,28 +5307,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
-      </c>
-      <c r="C163" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>19019989</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F163" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G163" t="s">
         <v>16</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>43394.75833333333</v>
+        <v>43394.57916666667</v>
       </c>
       <c r="I163" s="2" t="n">
-        <v>43394.8</v>
+        <v>43395.175</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5304,26 +5338,26 @@
       <c r="B164" t="n">
         <v>5</v>
       </c>
-      <c r="C164" t="s">
-        <v>17</v>
+      <c r="C164" t="n">
+        <v>19018607</v>
       </c>
       <c r="D164" t="s">
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>16</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>43392.37916666667</v>
+        <v>43390.64583333334</v>
       </c>
       <c r="I164" s="2" t="n">
-        <v>43392.86666666667</v>
+        <v>43391.10416666666</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5331,28 +5365,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
-      </c>
-      <c r="C165" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>19019381</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G165" t="s">
         <v>16</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>43394.8</v>
+        <v>43393.98333333333</v>
       </c>
       <c r="I165" s="2" t="n">
-        <v>43394.84166666667</v>
+        <v>43394.025</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5360,28 +5394,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" t="n">
-        <v>19017457</v>
+        <v>19018242</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
         <v>16</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>43396.24583333333</v>
+        <v>43396.31666666667</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>43396.73333333333</v>
+        <v>43396.9125</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5389,28 +5423,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>19017203</v>
+        <v>19018243</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>43394.84166666667</v>
+        <v>43394.32916666667</v>
       </c>
       <c r="I167" s="2" t="n">
-        <v>43394.88333333333</v>
+        <v>43394.37083333333</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5418,28 +5452,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4</v>
-      </c>
-      <c r="C168" t="n">
-        <v>19019989</v>
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
       </c>
       <c r="D168" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G168" t="s">
         <v>16</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>43394.88333333333</v>
+        <v>43394.37083333333</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>43394.925</v>
+        <v>43394.4125</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5447,28 +5481,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>19019381</v>
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>36</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G169" t="s">
         <v>16</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>43394.925</v>
+        <v>43396.31666666667</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>43394.96666666667</v>
+        <v>43396.35833333333</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5476,28 +5510,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G170" t="s">
         <v>16</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>43396.73333333333</v>
+        <v>43396.35833333333</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>43397.22083333333</v>
+        <v>43396.4</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5505,28 +5539,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
-      </c>
-      <c r="C171" t="n">
-        <v>19019990</v>
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>46</v>
       </c>
       <c r="D171" t="s">
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G171" t="s">
         <v>16</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>43394.96666666667</v>
+        <v>43396.4</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>43395.00833333333</v>
+        <v>43396.44166666667</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5534,28 +5568,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
-      </c>
-      <c r="C172" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>19018242</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G172" t="s">
         <v>16</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>43395.00833333333</v>
+        <v>43396.9125</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>43395.05</v>
+        <v>43396.95416666667</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5563,28 +5597,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
-      </c>
-      <c r="C173" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>19019989</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G173" t="s">
         <v>16</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>43396.24583333333</v>
+        <v>43396.98333333333</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>43396.2875</v>
+        <v>43397.025</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5592,28 +5626,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
-      </c>
-      <c r="C174" t="n">
-        <v>19019991</v>
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>37</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G174" t="s">
         <v>16</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>43396.2875</v>
+        <v>43397.025</v>
       </c>
       <c r="I174" s="2" t="n">
-        <v>43396.32916666667</v>
+        <v>43397.06666666667</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5623,14 +5657,14 @@
       <c r="B175" t="n">
         <v>5</v>
       </c>
-      <c r="C175" t="s">
-        <v>31</v>
+      <c r="C175" t="n">
+        <v>19018607</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
         <v>33</v>
@@ -5639,10 +5673,10 @@
         <v>16</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>43397.22083333333</v>
+        <v>43391.67916666667</v>
       </c>
       <c r="I175" s="2" t="n">
-        <v>43397.70833333334</v>
+        <v>43391.87083333333</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5650,28 +5684,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>19019380</v>
+        <v>19018607</v>
       </c>
       <c r="D176" t="s">
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G176" t="s">
         <v>16</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>43396.32916666667</v>
+        <v>43396.675</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>43396.37083333333</v>
+        <v>43397.1625</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5681,26 +5715,26 @@
       <c r="B177" t="n">
         <v>5</v>
       </c>
-      <c r="C177" t="s">
-        <v>31</v>
+      <c r="C177" t="n">
+        <v>19018607</v>
       </c>
       <c r="D177" t="s">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
         <v>16</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>43397.70833333334</v>
+        <v>43397.1625</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>43397.75</v>
+        <v>43397.20416666667</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5708,28 +5742,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>19017457</v>
+        <v>19019379</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
         <v>16</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>43397.75</v>
+        <v>43397.20416666667</v>
       </c>
       <c r="I178" s="2" t="n">
-        <v>43397.79166666666</v>
+        <v>43397.24583333333</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5740,25 +5774,25 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G179" t="s">
         <v>16</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>43397.79166666666</v>
+        <v>43397.24583333333</v>
       </c>
       <c r="I179" s="2" t="n">
-        <v>43397.83333333334</v>
+        <v>43397.2875</v>
       </c>
     </row>
   </sheetData>
